--- a/KiCad/Versie2/BestelFiles/Versie2-BOM.xlsx
+++ b/KiCad/Versie2/BestelFiles/Versie2-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\COPD_shirt\KiCad\Versie2\BestelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477FA905-A2B7-4A32-B78C-3ED6357B1E14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321B68F1-6DA2-4930-8CC7-7A3B4585AB54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="187">
   <si>
     <t>xxxx xxxx xxxxx xxPCS BOM  (Sample Bill of Materials)</t>
   </si>
@@ -619,6 +619,42 @@
   </si>
   <si>
     <t>CONN HEADER SMD 10POS 1.27MM</t>
+  </si>
+  <si>
+    <t>SD_Kaart</t>
+  </si>
+  <si>
+    <t>Mallory Sonalert Products Inc.</t>
+  </si>
+  <si>
+    <t>AST0760MCTRQ</t>
+  </si>
+  <si>
+    <t>SMT TRANSDUCER, 1.-25VAC,74DB,60</t>
+  </si>
+  <si>
+    <t>0,295" L x 0,295" B (7,50mm x 7,50mm)</t>
+  </si>
+  <si>
+    <t>Delkin Devices, Inc.</t>
+  </si>
+  <si>
+    <t>USDCOEM-32GB</t>
+  </si>
+  <si>
+    <t>32GB 3D MICROSD CARD (-25C - +85</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>THT &amp; SMD</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>EXTERN</t>
   </si>
 </sst>
 </file>
@@ -696,8 +732,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -722,7 +757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -745,6 +780,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -755,7 +812,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,49 +834,65 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1174,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1186,7 +1259,7 @@
     <col min="4" max="4" width="34.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="34" style="3" customWidth="1"/>
     <col min="6" max="6" width="41.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="35.5703125" style="3" customWidth="1"/>
     <col min="10" max="10" width="30" style="3" customWidth="1"/>
@@ -1194,25 +1267,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="D2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="28.5" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -1247,1186 +1320,1307 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7">
+      <c r="A7" s="17">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="17">
         <v>1</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1">
-      <c r="A8" s="11">
+      <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="17">
+        <v>4</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="17">
+        <v>4</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="17">
+        <v>5</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="17">
+        <v>7</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="17">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="17">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="17">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="17">
+        <v>3</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="17">
+        <v>9</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1">
+      <c r="A16" s="17">
+        <v>10</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="18">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="18">
+        <v>11</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="17">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="7">
-        <v>3</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="17">
+        <v>13</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="17">
+        <v>14</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="17">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="17">
+        <v>16</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="17">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1040310811</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="17">
+        <v>17</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="17">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="17">
+        <v>18</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="17">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="17">
+        <v>19</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="17">
+        <v>1</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="17">
+        <v>20</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" s="2" customFormat="1">
+      <c r="A26" s="17">
+        <v>21</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="17">
+        <v>7</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="17">
+        <v>22</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="17">
+        <v>23</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="17">
+        <v>24</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="17">
+        <v>25</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="17">
+        <v>26</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="17">
+        <v>5</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="17">
+        <v>27</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="17">
         <v>4</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D32" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="17">
+        <v>28</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="17">
+        <v>5</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="17">
+        <v>29</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="17">
+        <v>2</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="17">
+        <v>30</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="17">
+        <v>4</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="17">
+        <v>31</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="17">
+        <v>1</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="17">
+        <v>32</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="17">
+        <v>1</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="17">
+        <v>33</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="17">
+        <v>1</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="17">
+        <v>34</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="17">
+        <v>2</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="17">
         <v>35</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="B40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="17">
+        <v>1</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="7">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="7">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="7">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="7">
-        <v>7</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="7">
-        <v>8</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="7">
-        <v>9</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1">
-      <c r="A16" s="7">
-        <v>10</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="11">
-        <v>2</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="11">
-        <v>11</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="7">
-        <v>12</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="7">
-        <v>13</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="7">
-        <v>14</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="7">
-        <v>16</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1040310811</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="7">
-        <v>17</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="7">
-        <v>18</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="7">
-        <v>19</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="7">
-        <v>20</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="1:10" s="2" customFormat="1">
-      <c r="A26" s="7">
-        <v>21</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="7">
-        <v>7</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="7">
-        <v>22</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="7">
-        <v>23</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="7">
-        <v>24</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="7">
-        <v>25</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="7">
-        <v>26</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="7">
-        <v>5</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="7">
-        <v>27</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="7">
-        <v>4</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="7">
-        <v>28</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="7">
-        <v>5</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="7">
-        <v>29</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="7">
-        <v>30</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="7">
-        <v>4</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="7">
-        <v>31</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="7">
-        <v>32</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="7">
-        <v>33</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="7">
-        <v>34</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="7">
-        <v>2</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="7">
-        <v>35</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="7">
-        <v>1</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="H40" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
       <c r="L40" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="7">
+      <c r="A41" s="17">
         <v>36</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="17">
         <v>8</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
+      <c r="H41" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
       <c r="L41" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="7">
+      <c r="A42" s="17">
         <v>37</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="17">
         <v>3</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="H42" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="7">
+      <c r="A43" s="17">
         <v>38</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="17">
         <v>2</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
+      <c r="H43" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="7">
+      <c r="A44" s="17">
         <v>39</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="17">
         <v>1</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
+      <c r="H44" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="7">
+      <c r="A45" s="17">
         <v>40</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="17">
         <v>1</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
+      <c r="H45" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="7">
+      <c r="A46" s="17">
         <v>41</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="17">
         <v>1</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
+      <c r="H46" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="7">
+      <c r="A47" s="17">
         <v>42</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="17">
         <v>2</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
+      <c r="H47" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="7">
+      <c r="A48" s="17">
         <v>43</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="17">
         <v>1</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
+      <c r="H48" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="7">
+      <c r="A49" s="17">
         <v>44</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="17">
         <v>1</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="H49" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="7">
+      <c r="A50" s="17">
         <v>45</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="17">
         <v>2</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
+      <c r="H50" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="17">
         <v>2</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
+      <c r="H51" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="17">
         <v>1</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
+      <c r="H52" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
+      <c r="A53" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="21">
+        <v>1</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="7"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="G55" s="15"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="G56" s="15"/>
+      <c r="G56" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
